--- a/Code/Results/Cases/Case_9_60/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_60/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.09698886129038</v>
+        <v>24.06991117582782</v>
       </c>
       <c r="C2">
-        <v>13.24353049669767</v>
+        <v>14.20618757567274</v>
       </c>
       <c r="D2">
-        <v>3.569129044622982</v>
+        <v>3.896380783389171</v>
       </c>
       <c r="E2">
-        <v>6.963992247900533</v>
+        <v>6.915344480636483</v>
       </c>
       <c r="F2">
-        <v>31.41400473439628</v>
+        <v>28.75022674205833</v>
       </c>
       <c r="G2">
-        <v>42.09218817256223</v>
+        <v>37.26514890310674</v>
       </c>
       <c r="H2">
-        <v>3.049263483013462</v>
+        <v>2.854970685529532</v>
       </c>
       <c r="I2">
-        <v>3.843249018236443</v>
+        <v>3.599131361702375</v>
       </c>
       <c r="J2">
-        <v>13.32413309163272</v>
+        <v>12.52483856716997</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>5.964081005977103</v>
+        <v>15.03475981807185</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>13.07062914506807</v>
       </c>
       <c r="N2">
-        <v>7.462115345609455</v>
+        <v>5.846113108692941</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>7.8952745931589</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.56983499652136</v>
+        <v>22.52618841134166</v>
       </c>
       <c r="C3">
-        <v>12.46736322970068</v>
+        <v>13.27638100362648</v>
       </c>
       <c r="D3">
-        <v>3.486671289100013</v>
+        <v>3.798779080471864</v>
       </c>
       <c r="E3">
-        <v>6.827106488877797</v>
+        <v>6.803448955772653</v>
       </c>
       <c r="F3">
-        <v>30.61761626250126</v>
+        <v>28.20800120493591</v>
       </c>
       <c r="G3">
-        <v>40.73979288809794</v>
+        <v>36.4048440916988</v>
       </c>
       <c r="H3">
-        <v>3.337125525886685</v>
+        <v>3.114044410854212</v>
       </c>
       <c r="I3">
-        <v>4.084579793052589</v>
+        <v>3.807462830129225</v>
       </c>
       <c r="J3">
-        <v>13.1528685541203</v>
+        <v>12.39254120374654</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>5.900565920136845</v>
+        <v>15.11132631683534</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>13.02384223409657</v>
       </c>
       <c r="N3">
-        <v>7.173707129405478</v>
+        <v>5.795911743718771</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>7.584277559314977</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.58007703835868</v>
+        <v>21.52345861931869</v>
       </c>
       <c r="C4">
-        <v>11.97003277005269</v>
+        <v>12.67812155801648</v>
       </c>
       <c r="D4">
-        <v>3.436002811264312</v>
+        <v>3.738835128372578</v>
       </c>
       <c r="E4">
-        <v>6.740596851678199</v>
+        <v>6.732727241739036</v>
       </c>
       <c r="F4">
-        <v>30.1247345963719</v>
+        <v>27.87377380773681</v>
       </c>
       <c r="G4">
-        <v>39.896114970582</v>
+        <v>35.87628450165371</v>
       </c>
       <c r="H4">
-        <v>3.519664099114649</v>
+        <v>3.278479255229152</v>
       </c>
       <c r="I4">
-        <v>4.238041996125729</v>
+        <v>3.940306686714714</v>
       </c>
       <c r="J4">
-        <v>13.04941426870452</v>
+        <v>12.31030301747837</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>5.859961788717275</v>
+        <v>15.1545346457423</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>13.01386028770629</v>
       </c>
       <c r="N4">
-        <v>6.992058652799446</v>
+        <v>5.763739013045748</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>7.388505374546904</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.16383649118868</v>
+        <v>21.10115372870371</v>
       </c>
       <c r="C5">
-        <v>11.77348990854985</v>
+        <v>12.43815450744107</v>
       </c>
       <c r="D5">
-        <v>3.417327634498701</v>
+        <v>3.716263929624036</v>
       </c>
       <c r="E5">
-        <v>6.703780732432447</v>
+        <v>6.702632340562308</v>
       </c>
       <c r="F5">
-        <v>29.9014342379614</v>
+        <v>27.71888432085743</v>
       </c>
       <c r="G5">
-        <v>39.51111550478223</v>
+        <v>35.62828858327749</v>
       </c>
       <c r="H5">
-        <v>3.596013676629464</v>
+        <v>3.347277149386575</v>
       </c>
       <c r="I5">
-        <v>4.304434197341362</v>
+        <v>3.998583175268683</v>
       </c>
       <c r="J5">
-        <v>13.00021730282919</v>
+        <v>12.27017192341666</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>5.842055923805584</v>
+        <v>15.1599222038634</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>13.00614126253084</v>
       </c>
       <c r="N5">
-        <v>6.919713205433095</v>
+        <v>5.749585747216553</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>7.309987166349606</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.0940825345294</v>
+        <v>21.03030438668254</v>
       </c>
       <c r="C6">
-        <v>11.75438538262626</v>
+        <v>12.41095257313283</v>
       </c>
       <c r="D6">
-        <v>3.416651269317825</v>
+        <v>3.714776229964984</v>
       </c>
       <c r="E6">
-        <v>6.696486713514569</v>
+        <v>6.696675762849683</v>
       </c>
       <c r="F6">
-        <v>29.83782074500497</v>
+        <v>27.67061393270261</v>
       </c>
       <c r="G6">
-        <v>39.40025101455908</v>
+        <v>35.5472239481032</v>
       </c>
       <c r="H6">
-        <v>3.60936233051756</v>
+        <v>3.359290643323943</v>
       </c>
       <c r="I6">
-        <v>4.318730050326723</v>
+        <v>4.012033252030356</v>
       </c>
       <c r="J6">
-        <v>12.98293619996571</v>
+        <v>12.25570364139453</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>5.837900309971491</v>
+        <v>15.14702259829461</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>12.99498439324397</v>
       </c>
       <c r="N6">
-        <v>6.911010431516705</v>
+        <v>5.746364835916531</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>7.299802346538574</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.5748741264776</v>
+        <v>21.51819744969409</v>
       </c>
       <c r="C7">
-        <v>12.00443382107004</v>
+        <v>12.70307894607918</v>
       </c>
       <c r="D7">
-        <v>3.442300280274554</v>
+        <v>3.749763844500457</v>
       </c>
       <c r="E7">
-        <v>6.737015756863999</v>
+        <v>6.730236406835092</v>
       </c>
       <c r="F7">
-        <v>30.04999895958609</v>
+        <v>27.77721032656225</v>
       </c>
       <c r="G7">
-        <v>39.76457730591928</v>
+        <v>35.81482300233564</v>
       </c>
       <c r="H7">
-        <v>3.522248767040901</v>
+        <v>3.28160762723799</v>
       </c>
       <c r="I7">
-        <v>4.247404852659852</v>
+        <v>3.951650217514456</v>
       </c>
       <c r="J7">
-        <v>13.0239149280251</v>
+        <v>12.23372966603555</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>5.856593276355892</v>
+        <v>15.10112784775153</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>12.97274378397667</v>
       </c>
       <c r="N7">
-        <v>7.000171813162383</v>
+        <v>5.760463108276634</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>7.395810407137277</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.58157035132112</v>
+        <v>23.54948953598547</v>
       </c>
       <c r="C8">
-        <v>13.02596571546597</v>
+        <v>13.91354202510468</v>
       </c>
       <c r="D8">
-        <v>3.549074386040535</v>
+        <v>3.887273847811756</v>
       </c>
       <c r="E8">
-        <v>6.913362704230189</v>
+        <v>6.875473409752811</v>
       </c>
       <c r="F8">
-        <v>31.04846534438468</v>
+        <v>28.37779999276169</v>
       </c>
       <c r="G8">
-        <v>41.46822998982316</v>
+        <v>36.99323411227998</v>
       </c>
       <c r="H8">
-        <v>3.149299750594919</v>
+        <v>2.947516875707684</v>
       </c>
       <c r="I8">
-        <v>3.936255603624182</v>
+        <v>3.684887187706523</v>
       </c>
       <c r="J8">
-        <v>13.23250200541029</v>
+        <v>12.27396804725552</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>5.938516657294381</v>
+        <v>14.96477989380716</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>12.9667469841067</v>
       </c>
       <c r="N8">
-        <v>7.37511885943813</v>
+        <v>5.823730374449934</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>7.800581081916302</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.10167486552409</v>
+        <v>27.09660465743044</v>
       </c>
       <c r="C9">
-        <v>14.80373087123393</v>
+        <v>16.03794401909733</v>
       </c>
       <c r="D9">
-        <v>3.746841666585771</v>
+        <v>4.126544307837553</v>
       </c>
       <c r="E9">
-        <v>7.245351349590154</v>
+        <v>7.147341340369626</v>
       </c>
       <c r="F9">
-        <v>33.09030932328202</v>
+        <v>29.77010198840773</v>
       </c>
       <c r="G9">
-        <v>44.9021025893406</v>
+        <v>39.29597440319815</v>
       </c>
       <c r="H9">
-        <v>2.459773741084271</v>
+        <v>2.328397607124758</v>
       </c>
       <c r="I9">
-        <v>3.35292334613086</v>
+        <v>3.181178543147385</v>
       </c>
       <c r="J9">
-        <v>13.69802655378784</v>
+        <v>12.58013105941959</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.09208091552893</v>
+        <v>14.78824492150737</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>13.20652002828672</v>
       </c>
       <c r="N9">
-        <v>8.05635152513184</v>
+        <v>5.944080450956502</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>8.537727556092291</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.43468624724627</v>
+        <v>29.43780576552719</v>
       </c>
       <c r="C10">
-        <v>16.08686510715533</v>
+        <v>17.49109602023137</v>
       </c>
       <c r="D10">
-        <v>3.891914433805802</v>
+        <v>4.321268506213123</v>
       </c>
       <c r="E10">
-        <v>7.427202106605085</v>
+        <v>7.296122513751198</v>
       </c>
       <c r="F10">
-        <v>34.20690268294765</v>
+        <v>30.32752128890166</v>
       </c>
       <c r="G10">
-        <v>46.78015701584497</v>
+        <v>40.79668524016648</v>
       </c>
       <c r="H10">
-        <v>2.010770915496083</v>
+        <v>1.932353762234405</v>
       </c>
       <c r="I10">
-        <v>2.9612061932036</v>
+        <v>2.84985463166668</v>
       </c>
       <c r="J10">
-        <v>13.93107506487224</v>
+        <v>12.41833713922114</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.173739754857868</v>
+        <v>14.43853949184015</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>13.25632618830428</v>
       </c>
       <c r="N10">
-        <v>8.466998038448869</v>
+        <v>6.008292700266659</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>8.981039536186312</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.43848568489402</v>
+        <v>30.44261097036388</v>
       </c>
       <c r="C11">
-        <v>17.24498111762162</v>
+        <v>18.47041091137134</v>
       </c>
       <c r="D11">
-        <v>3.940417123262348</v>
+        <v>4.376603998238927</v>
       </c>
       <c r="E11">
-        <v>7.160947579718618</v>
+        <v>7.064691865746993</v>
       </c>
       <c r="F11">
-        <v>31.87385313784556</v>
+        <v>28.0138010686383</v>
       </c>
       <c r="G11">
-        <v>43.16456326235149</v>
+        <v>38.3584012097965</v>
       </c>
       <c r="H11">
-        <v>2.897973205548516</v>
+        <v>2.85660047705037</v>
       </c>
       <c r="I11">
-        <v>2.867750989677956</v>
+        <v>2.780243288253691</v>
       </c>
       <c r="J11">
-        <v>13.10085261662363</v>
+        <v>11.19135625950201</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.073190430755324</v>
+        <v>13.21376309295191</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>12.07904538526239</v>
       </c>
       <c r="N11">
-        <v>8.084676317013951</v>
+        <v>5.971359284695113</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>8.549207318978205</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.80917962131733</v>
+        <v>30.81346999414169</v>
       </c>
       <c r="C12">
-        <v>17.93253355980035</v>
+        <v>18.98387658776987</v>
       </c>
       <c r="D12">
-        <v>3.938498490193528</v>
+        <v>4.352695743270015</v>
       </c>
       <c r="E12">
-        <v>7.025940027534157</v>
+        <v>6.954703146219556</v>
       </c>
       <c r="F12">
-        <v>29.7527152546867</v>
+        <v>26.12641781283129</v>
       </c>
       <c r="G12">
-        <v>39.8500607613775</v>
+        <v>35.92548313936359</v>
       </c>
       <c r="H12">
-        <v>4.237831758101256</v>
+        <v>4.210455980070442</v>
       </c>
       <c r="I12">
-        <v>2.847673269530371</v>
+        <v>2.763917165199127</v>
       </c>
       <c r="J12">
-        <v>12.38735777440187</v>
+        <v>10.44029834759688</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.061104946418983</v>
+        <v>12.41462801374971</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>11.19084094617434</v>
       </c>
       <c r="N12">
-        <v>7.664453490687309</v>
+        <v>6.010426945807024</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>8.08013251103459</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.72798273333791</v>
+        <v>30.73212537665721</v>
       </c>
       <c r="C13">
-        <v>18.36302242398419</v>
+        <v>19.2401615530524</v>
       </c>
       <c r="D13">
-        <v>3.906242350066022</v>
+        <v>4.264706945875614</v>
       </c>
       <c r="E13">
-        <v>6.981949426464879</v>
+        <v>6.934446049634882</v>
       </c>
       <c r="F13">
-        <v>27.53959438907984</v>
+        <v>24.41365182173946</v>
       </c>
       <c r="G13">
-        <v>36.33234528020066</v>
+        <v>33.0363105191716</v>
       </c>
       <c r="H13">
-        <v>5.652458858094155</v>
+        <v>5.627631338386497</v>
       </c>
       <c r="I13">
-        <v>2.898260086889389</v>
+        <v>2.804494369032338</v>
       </c>
       <c r="J13">
-        <v>11.68196424174719</v>
+        <v>10.0410664389448</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.109461524528379</v>
+        <v>11.84783705816958</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>10.46649209688147</v>
       </c>
       <c r="N13">
-        <v>7.194729449998412</v>
+        <v>6.100107811294401</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>7.556179789685801</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.46596903669531</v>
+        <v>30.46966886551567</v>
       </c>
       <c r="C14">
-        <v>18.56441142030522</v>
+        <v>19.31542619638663</v>
       </c>
       <c r="D14">
-        <v>3.870941291762985</v>
+        <v>4.177225788508448</v>
       </c>
       <c r="E14">
-        <v>7.009439112663994</v>
+        <v>6.979313241075666</v>
       </c>
       <c r="F14">
-        <v>25.93034787342171</v>
+        <v>23.27128507462883</v>
       </c>
       <c r="G14">
-        <v>33.73057908249564</v>
+        <v>30.77638412516265</v>
       </c>
       <c r="H14">
-        <v>6.6624059703815</v>
+        <v>6.636728623316691</v>
       </c>
       <c r="I14">
-        <v>2.968303819103034</v>
+        <v>2.862075908067818</v>
       </c>
       <c r="J14">
-        <v>11.19025786601281</v>
+        <v>9.891014468257735</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.179770715361786</v>
+        <v>11.54378249192717</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>10.03986707849601</v>
       </c>
       <c r="N14">
-        <v>6.844218932028073</v>
+        <v>6.191275237409421</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>7.165205735360797</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.30481074484926</v>
+        <v>30.308196873685</v>
       </c>
       <c r="C15">
-        <v>18.56994864716233</v>
+        <v>19.28870001010271</v>
       </c>
       <c r="D15">
-        <v>3.858327897949346</v>
+        <v>4.146247845870234</v>
       </c>
       <c r="E15">
-        <v>7.018080975562355</v>
+        <v>6.994032389214186</v>
       </c>
       <c r="F15">
-        <v>25.49836738261484</v>
+        <v>23.00416348614275</v>
       </c>
       <c r="G15">
-        <v>33.015373224679</v>
+        <v>30.10882428189629</v>
       </c>
       <c r="H15">
-        <v>6.900354791241134</v>
+        <v>6.87338937521082</v>
       </c>
       <c r="I15">
-        <v>3.005603710734416</v>
+        <v>2.894114088593809</v>
       </c>
       <c r="J15">
-        <v>11.0652770525956</v>
+        <v>9.902472653588024</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.198302652751051</v>
+        <v>11.4939129435889</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>9.958504806537718</v>
       </c>
       <c r="N15">
-        <v>6.750510023843829</v>
+        <v>6.213448850771345</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>7.06034097669016</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.36643227402333</v>
+        <v>29.36744534902011</v>
       </c>
       <c r="C16">
-        <v>18.01203751222209</v>
+        <v>18.73035817462485</v>
       </c>
       <c r="D16">
-        <v>3.806125551826579</v>
+        <v>4.047500298176828</v>
       </c>
       <c r="E16">
-        <v>6.941206110654459</v>
+        <v>6.935886689689415</v>
       </c>
       <c r="F16">
-        <v>25.36403240000509</v>
+        <v>23.26802903188677</v>
       </c>
       <c r="G16">
-        <v>32.70346424418846</v>
+        <v>29.47863964973295</v>
       </c>
       <c r="H16">
-        <v>6.731452669147426</v>
+        <v>6.692678643846188</v>
       </c>
       <c r="I16">
-        <v>3.168115165583806</v>
+        <v>3.028961376491307</v>
       </c>
       <c r="J16">
-        <v>11.08750717903021</v>
+        <v>10.37093841025943</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.147640190828283</v>
+        <v>11.74993985513569</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>10.20417991220323</v>
       </c>
       <c r="N16">
-        <v>6.658279030006124</v>
+        <v>6.158584925128118</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>6.960033290628398</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.77654896286154</v>
+        <v>28.77565639473071</v>
       </c>
       <c r="C17">
-        <v>17.46176348488808</v>
+        <v>18.24210112145259</v>
       </c>
       <c r="D17">
-        <v>3.78559069762402</v>
+        <v>4.023971744791351</v>
       </c>
       <c r="E17">
-        <v>6.855497619985569</v>
+        <v>6.851904150892945</v>
       </c>
       <c r="F17">
-        <v>26.12507454290637</v>
+        <v>24.04906642031918</v>
       </c>
       <c r="G17">
-        <v>33.87713086034435</v>
+        <v>30.28588558195847</v>
       </c>
       <c r="H17">
-        <v>6.042758112457207</v>
+        <v>5.992680559439248</v>
       </c>
       <c r="I17">
-        <v>3.256500907512502</v>
+        <v>3.103519316084148</v>
       </c>
       <c r="J17">
-        <v>11.3638849679071</v>
+        <v>10.77880017855966</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.064343444911828</v>
+        <v>12.11635633723799</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>10.59096335563738</v>
       </c>
       <c r="N17">
-        <v>6.777715817777651</v>
+        <v>6.064067151318443</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>7.095292008698596</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.43146217372379</v>
+        <v>28.42973080881268</v>
       </c>
       <c r="C18">
-        <v>16.83940653130643</v>
+        <v>17.75394725962234</v>
       </c>
       <c r="D18">
-        <v>3.783738446673131</v>
+        <v>4.047249636293385</v>
       </c>
       <c r="E18">
-        <v>6.818783380211062</v>
+        <v>6.799332485568153</v>
       </c>
       <c r="F18">
-        <v>27.80546475076638</v>
+        <v>25.47871831251296</v>
       </c>
       <c r="G18">
-        <v>36.5586010634717</v>
+        <v>32.39069894595153</v>
       </c>
       <c r="H18">
-        <v>4.864549495796704</v>
+        <v>4.800117450489601</v>
       </c>
       <c r="I18">
-        <v>3.278107043631195</v>
+        <v>3.119470777883509</v>
       </c>
       <c r="J18">
-        <v>11.9155550327298</v>
+        <v>11.28651590757973</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>5.98394521646915</v>
+        <v>12.69877713528969</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>11.20920888723981</v>
       </c>
       <c r="N18">
-        <v>7.091947809200259</v>
+        <v>5.959098377809368</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>7.448283624008285</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.31297893039749</v>
+        <v>28.31160668048804</v>
       </c>
       <c r="C19">
-        <v>16.28285316207078</v>
+        <v>17.37165899595972</v>
       </c>
       <c r="D19">
-        <v>3.804861563357188</v>
+        <v>4.111221107990489</v>
       </c>
       <c r="E19">
-        <v>6.920229938698423</v>
+        <v>6.867962226548667</v>
       </c>
       <c r="F19">
-        <v>30.00274597065294</v>
+        <v>27.26487149775827</v>
       </c>
       <c r="G19">
-        <v>40.05362824306454</v>
+        <v>35.16651308877137</v>
       </c>
       <c r="H19">
-        <v>3.502855109628095</v>
+        <v>3.418632093660819</v>
       </c>
       <c r="I19">
-        <v>3.258733158597598</v>
+        <v>3.105484239251534</v>
       </c>
       <c r="J19">
-        <v>12.6220762743309</v>
+        <v>11.85009899014896</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>5.973611763027668</v>
+        <v>13.41693352611983</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>11.96886711649516</v>
       </c>
       <c r="N19">
-        <v>7.556688448063584</v>
+        <v>5.906952673714134</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>7.965916945354297</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.83917957611419</v>
+        <v>28.84086573360225</v>
       </c>
       <c r="C20">
-        <v>15.85230112994213</v>
+        <v>17.22485498362064</v>
       </c>
       <c r="D20">
-        <v>3.871842534768305</v>
+        <v>4.270301210318214</v>
       </c>
       <c r="E20">
-        <v>7.36932005586509</v>
+        <v>7.247138839489144</v>
       </c>
       <c r="F20">
-        <v>33.70334298237026</v>
+        <v>30.10789037066673</v>
       </c>
       <c r="G20">
-        <v>45.92959010774676</v>
+        <v>39.92860629619435</v>
       </c>
       <c r="H20">
-        <v>2.130668530651468</v>
+        <v>2.035258488542541</v>
       </c>
       <c r="I20">
-        <v>3.093107469997659</v>
+        <v>2.968952304638418</v>
       </c>
       <c r="J20">
-        <v>13.7929356174134</v>
+        <v>12.57928167878805</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.143220439676029</v>
+        <v>14.48167083154845</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>13.18640048419171</v>
       </c>
       <c r="N20">
-        <v>8.381645287156287</v>
+        <v>5.987623057703641</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>8.882392331565841</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.54963720443975</v>
+        <v>30.55372263897792</v>
       </c>
       <c r="C21">
-        <v>16.68223451206079</v>
+        <v>18.1172196619478</v>
       </c>
       <c r="D21">
-        <v>3.98292285534984</v>
+        <v>4.520359298809894</v>
       </c>
       <c r="E21">
-        <v>7.58499765245432</v>
+        <v>7.438753905789226</v>
       </c>
       <c r="F21">
-        <v>35.09034123678901</v>
+        <v>30.41861885459617</v>
       </c>
       <c r="G21">
-        <v>48.19847579287821</v>
+        <v>42.62235016381625</v>
       </c>
       <c r="H21">
-        <v>1.744587900760981</v>
+        <v>1.703103296917486</v>
       </c>
       <c r="I21">
-        <v>2.783295026147028</v>
+        <v>2.717037166897944</v>
       </c>
       <c r="J21">
-        <v>14.15387283036251</v>
+        <v>11.67185571220719</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.240902809414085</v>
+        <v>14.16395951885047</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>13.18433594198087</v>
       </c>
       <c r="N21">
-        <v>8.786054773714028</v>
+        <v>6.04633004459428</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>9.330886324980263</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.62215214423331</v>
+        <v>31.62537893740496</v>
       </c>
       <c r="C22">
-        <v>17.20460584170194</v>
+        <v>18.66339399251281</v>
       </c>
       <c r="D22">
-        <v>4.046888134494561</v>
+        <v>4.679238014226589</v>
       </c>
       <c r="E22">
-        <v>7.702105043683568</v>
+        <v>7.545285786048574</v>
       </c>
       <c r="F22">
-        <v>35.90243946247441</v>
+        <v>30.51990842631281</v>
       </c>
       <c r="G22">
-        <v>49.53574059052169</v>
+        <v>44.34936984353551</v>
       </c>
       <c r="H22">
-        <v>1.610388999634783</v>
+        <v>1.617101773190017</v>
       </c>
       <c r="I22">
-        <v>2.575608189277696</v>
+        <v>2.543960044381694</v>
       </c>
       <c r="J22">
-        <v>14.36597453950188</v>
+        <v>11.02820691368492</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.29555839825766</v>
+        <v>13.9214070179906</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>13.15217547160276</v>
       </c>
       <c r="N22">
-        <v>9.001078123473238</v>
+        <v>6.078860319418125</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>9.571663548017389</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.05395804879212</v>
+        <v>31.05794071514592</v>
       </c>
       <c r="C23">
-        <v>16.89465243820538</v>
+        <v>18.35615349604237</v>
       </c>
       <c r="D23">
-        <v>4.006107499284143</v>
+        <v>4.574984270145805</v>
       </c>
       <c r="E23">
-        <v>7.642875510000232</v>
+        <v>7.489278214442582</v>
       </c>
       <c r="F23">
-        <v>35.54177545086561</v>
+        <v>30.60317791083086</v>
       </c>
       <c r="G23">
-        <v>48.94661971609659</v>
+        <v>43.41404271110245</v>
       </c>
       <c r="H23">
-        <v>1.633131536942547</v>
+        <v>1.606653513504333</v>
       </c>
       <c r="I23">
-        <v>2.673578946218889</v>
+        <v>2.620184527216614</v>
       </c>
       <c r="J23">
-        <v>14.27912264565564</v>
+        <v>11.50992135431939</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.269675241353377</v>
+        <v>14.11560343325292</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>13.24346816370673</v>
       </c>
       <c r="N23">
-        <v>8.87814207293491</v>
+        <v>6.065132113894054</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>9.435169162009393</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.81049370207501</v>
+        <v>28.81220782884493</v>
       </c>
       <c r="C24">
-        <v>15.73413201676382</v>
+        <v>17.12612770637578</v>
       </c>
       <c r="D24">
-        <v>3.861706033495461</v>
+        <v>4.2648105553501</v>
       </c>
       <c r="E24">
-        <v>7.410390727971771</v>
+        <v>7.282863794352607</v>
       </c>
       <c r="F24">
-        <v>34.04952667485671</v>
+        <v>30.39916004035519</v>
       </c>
       <c r="G24">
-        <v>46.48817584584716</v>
+        <v>40.38059712684242</v>
       </c>
       <c r="H24">
-        <v>2.111189959010931</v>
+        <v>2.016309681465872</v>
       </c>
       <c r="I24">
-        <v>3.073525092010837</v>
+        <v>2.946439631536023</v>
       </c>
       <c r="J24">
-        <v>13.91229597710224</v>
+        <v>12.68285063737961</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.164522473484438</v>
+        <v>14.62651062155371</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>13.33546190752359</v>
       </c>
       <c r="N24">
-        <v>8.414846593492348</v>
+        <v>6.000790582609572</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>8.922888968145807</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.19405244946566</v>
+        <v>26.18364252228304</v>
       </c>
       <c r="C25">
-        <v>14.39767981315456</v>
+        <v>15.54801174910665</v>
       </c>
       <c r="D25">
-        <v>3.704333591420605</v>
+        <v>4.065476382578358</v>
       </c>
       <c r="E25">
-        <v>7.152388709861997</v>
+        <v>7.070631475804706</v>
       </c>
       <c r="F25">
-        <v>32.42361625023727</v>
+        <v>29.33788387988982</v>
       </c>
       <c r="G25">
-        <v>43.78121328858654</v>
+        <v>38.42958929124617</v>
       </c>
       <c r="H25">
-        <v>2.644288232952605</v>
+        <v>2.492721121232127</v>
       </c>
       <c r="I25">
-        <v>3.522363322428798</v>
+        <v>3.33101437913284</v>
       </c>
       <c r="J25">
-        <v>13.52799192595519</v>
+        <v>12.53726412675648</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.046618035782513</v>
+        <v>14.80294127102719</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>13.08942610293446</v>
       </c>
       <c r="N25">
-        <v>7.89121872714308</v>
+        <v>5.909987499737907</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>8.355322031840887</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
